--- a/CoilDesign/combinedResults/New Microsoft Excel Worksheet.xlsx
+++ b/CoilDesign/combinedResults/New Microsoft Excel Worksheet.xlsx
@@ -1,25 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C4E30E-F4F6-49DD-906A-2CEA134BEE3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Middle</t>
+  </si>
+  <si>
+    <t>In Gap Between ferrites</t>
+  </si>
+  <si>
+    <t>On Top of Ferrites</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,6 +92,5915 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Y disp when X = 0 (In Gap)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ferrite Block</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[2]ydisp!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]ydisp!$Q$33:$Q$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.15959897302128428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15804497927121275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15123293583416217</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13860883987212388</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12263253100722643</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10303160616198277</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1061567130414856E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7214-406A-80F1-5136664E6036}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Less (7) Ferrites</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[2]ydisp!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]ydisp!$Q$65:$Q$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.7248120200715243E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6983249385948364E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5474108015163955E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3188946325329244E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0112769082088637E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.633242099687112E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1567491587922564E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6084401956945102E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0108604889330989E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3424445058913564E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6297063559770232E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7214-406A-80F1-5136664E6036}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>More(10) Ferrites</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[2]ydisp!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('[3]Results (3)'!$Q$5:$Q$8,'[3]Results (3)'!$Q$11:$Q$14,'[3]Results (3)'!$Q$17:$Q$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.5842656005582075E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4856548462596779E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3814456868727303E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2059462403844425E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4515587783188517E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1112602825923141E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7552835986158641E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3312442793595348E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0221969776926988E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5603203485776409E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.115847586785191E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-7214-406A-80F1-5136664E6036}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="818038879"/>
+        <c:axId val="1060214607"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="818038879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Y displacement (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1060214607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1060214607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818038879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Y disp when X = Max (Top of Ferrite)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ferrite Block</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[2]ydisp!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]ydisp!$Q$33:$Q$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.15959897302128428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15804497927121275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15123293583416217</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13860883987212388</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12263253100722643</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10303160616198277</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1061567130414856E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E492-4DE1-A26D-1994914F4943}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Less (7) Ferrites</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[2]ydisp!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]ydisp!$Q$5:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.15040906032838414</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14954874860014569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14742846907269816</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1437166456175954</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13855548019580788</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13207768302811407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12425740605673623</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11558688090892892</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10539790384176535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4261738803482945E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.2505880523829692E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E492-4DE1-A26D-1994914F4943}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>More(10) Ferrites</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[2]ydisp!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]Results (3)'!$Q$291:$Q$301</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.14662190071117315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14590888624100795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14379930210790146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14017677437213261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13539370215835955</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12910999009628119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12167865756841971</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11317568136231011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10362193132340956</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3039145751488125E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1667118442193862E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E492-4DE1-A26D-1994914F4943}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="818038879"/>
+        <c:axId val="1060214607"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="818038879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Y displacement (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1060214607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1060214607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818038879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs X disp when Y is Centre of Track</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ferrite Block</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$1:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>In Gap Between ferrites</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Middle</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>On Top of Ferrites</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]xdisp!$Q$5:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.15955547365434397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15969108041667934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1596866054543922</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15940028874833531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15959897302128428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A42-427B-B100-C483CF5D50D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Less (7) Ferrites</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]xdisp!$Q$102:$Q$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15223204567741613</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14419164336940116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13109555630404662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11828226524692452</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10783886527399274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10009755084695754</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4406780340863333E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0710015717923018E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8635483733982404E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.7872526260079298E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8A42-427B-B100-C483CF5D50D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>More(10) Ferrites</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$1:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>In Gap Between ferrites</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Middle</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>On Top of Ferrites</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]Results (2)'!$Q$5:$Q$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.14642142387845347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.144604621253827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13856110901309285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13183067101591267</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12578440668335134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12159408791547489</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11895537182901422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11815615147897877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8A42-427B-B100-C483CF5D50D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="818038879"/>
+        <c:axId val="1060214607"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="818038879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>X displacement (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1060214607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1060214607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818038879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs X disp when Y is Edge of Track</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ferrite Block</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$1:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>In Gap Between ferrites</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Middle</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>On Top of Ferrites</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]xdisp!$Q$39:$Q$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.124816324674935E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1130723567221628E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1244290425295388E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0787534835649164E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1061567130414856E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1284874020947981E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B77-4252-A3DF-38A4E249204D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Less (7) Ferrites</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]xdisp!$Q$113:$Q$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.3037539533121471E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2872013520223678E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.892873256433959E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2307672462467304E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6053258553137137E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.086580414583645E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6901176815896133E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4095623837685181E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2208280042257069E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1150289811754977E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0889729882912071E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3B77-4252-A3DF-38A4E249204D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>More(10) Ferrites</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$1:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>In Gap Between ferrites</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Middle</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>On Top of Ferrites</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[3]Results (2)'!$Q$285:$Q$294</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.1501451489799551E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9926766009842734E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7706335751525801E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5343695685870307E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2917044948557844E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1200638736242688E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.963697910551922E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8474223432841791E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7890225673853541E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7728314981116186E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B77-4252-A3DF-38A4E249204D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="818038879"/>
+        <c:axId val="1060214607"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="818038879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>X displacement (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1060214607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1060214607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818038879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5742D802-7CAE-4BCA-BBDA-3D850343125E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B8482B5-0159-4738-A44B-51B695F7AF94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C775D095-2600-4E20-98F7-FA928A6EAE87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D12F54-C75D-4ACD-B67E-08B0E3EFED64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ydisp"/>
+      <sheetName val="xdisp"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+          <cell r="Q5">
+            <v>0.15955547365434397</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>9</v>
+          </cell>
+          <cell r="Q6">
+            <v>0.15811831095959347</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>18</v>
+          </cell>
+          <cell r="Q7">
+            <v>0.15111189505694944</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>27</v>
+          </cell>
+          <cell r="Q8">
+            <v>0.13885875745617815</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>36</v>
+          </cell>
+          <cell r="Q9">
+            <v>0.12272077209907126</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>45</v>
+          </cell>
+          <cell r="Q10">
+            <v>0.10319712859331616</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>50</v>
+          </cell>
+          <cell r="Q11">
+            <v>9.124816324674935E-2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="Q28">
+            <v>0.15085852372586986</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="Q29">
+            <v>0.13919480189315717</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="Q30">
+            <v>0.12300878261060014</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="Q31">
+            <v>0.10299749417540038</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="Q32">
+            <v>9.0787534835649164E-2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>0</v>
+          </cell>
+          <cell r="Q33">
+            <v>0.15959897302128428</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>9</v>
+          </cell>
+          <cell r="Q35">
+            <v>0.15804497927121275</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>18</v>
+          </cell>
+          <cell r="Q37">
+            <v>0.15123293583416217</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>27</v>
+          </cell>
+          <cell r="Q39">
+            <v>0.13860883987212388</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>36</v>
+          </cell>
+          <cell r="Q40">
+            <v>0.12263253100722643</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>45</v>
+          </cell>
+          <cell r="Q42">
+            <v>0.10303160616198277</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>50</v>
+          </cell>
+          <cell r="Q43">
+            <v>9.1061567130414856E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="5">
+          <cell r="Q5">
+            <v>0.15955547365434397</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="Q6">
+            <v>0.15969108041667934</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="Q7">
+            <v>0.1596866054543922</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="Q8">
+            <v>0.15940028874833531</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="Q9">
+            <v>0.15959897302128428</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="Q39">
+            <v>9.124816324674935E-2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="Q40">
+            <v>9.1130723567221628E-2</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="Q41">
+            <v>9.1244290425295388E-2</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="Q42">
+            <v>9.0787534835649164E-2</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="Q43">
+            <v>9.1061567130414856E-2</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="Q44">
+            <v>9.1284874020947981E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ydisp"/>
+      <sheetName val="xdisp"/>
+      <sheetName val="rawdata"/>
+      <sheetName val="graphs"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+          <cell r="Q5">
+            <v>0.15040906032838414</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>5</v>
+          </cell>
+          <cell r="Q6">
+            <v>0.14954874860014569</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>10</v>
+          </cell>
+          <cell r="Q7">
+            <v>0.14742846907269816</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>15</v>
+          </cell>
+          <cell r="Q8">
+            <v>0.1437166456175954</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>20</v>
+          </cell>
+          <cell r="Q9">
+            <v>0.13855548019580788</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>25</v>
+          </cell>
+          <cell r="Q10">
+            <v>0.13207768302811407</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>30</v>
+          </cell>
+          <cell r="Q11">
+            <v>0.12425740605673623</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>35</v>
+          </cell>
+          <cell r="Q12">
+            <v>0.11558688090892892</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>40</v>
+          </cell>
+          <cell r="Q13">
+            <v>0.10539790384176535</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>45</v>
+          </cell>
+          <cell r="Q14">
+            <v>9.4261738803482945E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>50</v>
+          </cell>
+          <cell r="Q15">
+            <v>8.2505880523829692E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>30</v>
+          </cell>
+          <cell r="Q16">
+            <v>0.11083525446171513</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>35</v>
+          </cell>
+          <cell r="Q17">
+            <v>0.10308625701577639</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>40</v>
+          </cell>
+          <cell r="Q18">
+            <v>9.4265449667996506E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>45</v>
+          </cell>
+          <cell r="Q19">
+            <v>8.4538732431500133E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64">
+            <v>50</v>
+          </cell>
+          <cell r="Q64">
+            <v>5.7629405861127858E-2</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65">
+            <v>0</v>
+          </cell>
+          <cell r="Q65">
+            <v>9.7248120200715243E-2</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66">
+            <v>5</v>
+          </cell>
+          <cell r="Q66">
+            <v>9.6983249385948364E-2</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="C67">
+            <v>10</v>
+          </cell>
+          <cell r="Q67">
+            <v>9.5474108015163955E-2</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="C68">
+            <v>15</v>
+          </cell>
+          <cell r="Q68">
+            <v>9.3188946325329244E-2</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="C69">
+            <v>20</v>
+          </cell>
+          <cell r="Q69">
+            <v>9.0112769082088637E-2</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70">
+            <v>25</v>
+          </cell>
+          <cell r="Q70">
+            <v>8.633242099687112E-2</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71">
+            <v>30</v>
+          </cell>
+          <cell r="Q71">
+            <v>8.1567491587922564E-2</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72">
+            <v>35</v>
+          </cell>
+          <cell r="Q72">
+            <v>7.6084401956945102E-2</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73">
+            <v>40</v>
+          </cell>
+          <cell r="Q73">
+            <v>7.0108604889330989E-2</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74">
+            <v>45</v>
+          </cell>
+          <cell r="Q74">
+            <v>6.3424445058913564E-2</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75">
+            <v>50</v>
+          </cell>
+          <cell r="Q75">
+            <v>5.6297063559770232E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="5">
+          <cell r="Q5">
+            <v>0.15040906032838414</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="Q6">
+            <v>0.145287847476716</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="Q7">
+            <v>0.1337395311285913</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="Q8">
+            <v>0.12162539769571522</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="Q9">
+            <v>0.11178775628279017</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="Q10">
+            <v>0.10457635243148465</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="Q11">
+            <v>9.9966053866741844E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="Q12">
+            <v>9.7248120200715243E-2</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="Q102">
+            <v>0.15223204567741613</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="Q103">
+            <v>0.14419164336940116</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="Q104">
+            <v>0.13109555630404662</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="Q105">
+            <v>0.11828226524692452</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="Q106">
+            <v>0.10783886527399274</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="Q107">
+            <v>0.10009755084695754</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="Q108">
+            <v>9.4406780340863333E-2</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="Q109">
+            <v>9.0710015717923018E-2</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="Q110">
+            <v>8.8635483733982404E-2</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="Q111">
+            <v>8.7872526260079298E-2</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="Q113">
+            <v>8.3037539533121471E-2</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="Q114">
+            <v>8.2872013520223678E-2</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="Q115">
+            <v>7.892873256433959E-2</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="Q116">
+            <v>7.2307672462467304E-2</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="Q117">
+            <v>6.6053258553137137E-2</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="Q118">
+            <v>6.086580414583645E-2</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="Q119">
+            <v>5.6901176815896133E-2</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="Q120">
+            <v>5.4095623837685181E-2</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="Q121">
+            <v>5.2208280042257069E-2</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="Q122">
+            <v>5.1150289811754977E-2</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="Q123">
+            <v>5.0889729882912071E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Results (3)"/>
+      <sheetName val="Results (2)"/>
+      <sheetName val="Graphs"/>
+      <sheetName val="Results"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="Q5">
+            <v>9.5842656005582075E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="Q6">
+            <v>9.4856548462596779E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="Q7">
+            <v>9.3814456868727303E-2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="Q8">
+            <v>9.2059462403844425E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="Q9">
+            <v>9.0073611968208775E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="Q10">
+            <v>8.7320158405196635E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="Q11">
+            <v>8.4515587783188517E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="Q12">
+            <v>8.1112602825923141E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="Q13">
+            <v>7.7552835986158641E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="Q14">
+            <v>7.3312442793595348E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="Q15">
+            <v>6.9084500972591667E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="Q16">
+            <v>6.4739667966707395E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="Q17">
+            <v>6.0221969776926988E-2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="Q18">
+            <v>5.5603203485776409E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="Q19">
+            <v>5.115847586785191E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="Q20">
+            <v>4.6674517830081856E-2</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="Q274">
+            <v>0.11246066340551357</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="Q275">
+            <v>0.11168647169957298</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="Q276">
+            <v>0.11016308429901774</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="Q279">
+            <v>0.10260352561216401</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="Q280">
+            <v>9.9461501318100831E-2</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="Q281">
+            <v>9.5391626401260893E-2</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="Q282">
+            <v>9.0977471681649616E-2</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="Q285">
+            <v>7.6169395971122794E-2</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="Q286">
+            <v>7.059776810408383E-2</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="Q287">
+            <v>6.5224072474842923E-2</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="Q288">
+            <v>5.9839093440928172E-2</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="Q291">
+            <v>0.14662190071117315</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="Q292">
+            <v>0.14590888624100795</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="Q293">
+            <v>0.14379930210790146</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="Q294">
+            <v>0.14017677437213261</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="Q295">
+            <v>0.13539370215835955</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="Q296">
+            <v>0.12910999009628119</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="Q297">
+            <v>0.12167865756841971</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="Q298">
+            <v>0.11317568136231011</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="Q299">
+            <v>0.10362193132340956</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="Q300">
+            <v>9.3039145751488125E-2</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="Q301">
+            <v>8.1667118442193862E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="5">
+          <cell r="Q5">
+            <v>0.14642142387845347</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="Q6">
+            <v>0.144604621253827</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="Q7">
+            <v>0.13856110901309285</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="Q8">
+            <v>0.13183067101591267</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="Q9">
+            <v>0.12578440668335134</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="Q10">
+            <v>0.12159408791547489</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="Q11">
+            <v>0.11895537182901422</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="Q12">
+            <v>0.11815615147897877</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="Q285">
+            <v>8.1501451489799551E-2</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="Q286">
+            <v>7.9926766009842734E-2</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="Q287">
+            <v>7.7706335751525801E-2</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="Q288">
+            <v>7.5343695685870307E-2</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="Q289">
+            <v>7.2917044948557844E-2</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="Q290">
+            <v>7.1200638736242688E-2</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="Q291">
+            <v>6.963697910551922E-2</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="Q292">
+            <v>6.8474223432841791E-2</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="Q293">
+            <v>6.7890225673853541E-2</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="Q294">
+            <v>6.7728314981116186E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +6265,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="13" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2179C6E3-9987-45D2-B336-AE7A3B62D01C}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CoilDesign/combinedResults/New Microsoft Excel Worksheet.xlsx
+++ b/CoilDesign/combinedResults/New Microsoft Excel Worksheet.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C4E30E-F4F6-49DD-906A-2CEA134BEE3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A64D9C-6707-4AF9-B0ED-848EC3FB10E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,7 +194,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[2]ydisp!$C$5:$C$15</c:f>
+              <c:f>[1]ydisp!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -236,7 +236,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]ydisp!$Q$33:$Q$43</c:f>
+              <c:f>[2]ydisp!$Q$33:$Q$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -291,7 +291,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[2]ydisp!$C$5:$C$15</c:f>
+              <c:f>[1]ydisp!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -333,7 +333,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]ydisp!$Q$65:$Q$75</c:f>
+              <c:f>[1]ydisp!$Q$65:$Q$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -402,7 +402,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[2]ydisp!$C$5:$C$15</c:f>
+              <c:f>[1]ydisp!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -492,7 +492,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -904,7 +903,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[2]ydisp!$C$5:$C$15</c:f>
+              <c:f>[1]ydisp!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -946,7 +945,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]ydisp!$Q$33:$Q$43</c:f>
+              <c:f>[2]ydisp!$Q$33:$Q$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1001,7 +1000,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[2]ydisp!$C$5:$C$15</c:f>
+              <c:f>[1]ydisp!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1043,7 +1042,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]ydisp!$Q$5:$Q$15</c:f>
+              <c:f>[1]ydisp!$Q$5:$Q$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1112,7 +1111,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[2]ydisp!$C$5:$C$15</c:f>
+              <c:f>[1]ydisp!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1630,7 +1629,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]xdisp!$Q$5:$Q$9</c:f>
+              <c:f>[2]xdisp!$Q$5:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1679,7 +1678,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[2]xdisp!$Q$102:$Q$111</c:f>
+              <c:f>[1]xdisp!$Q$102:$Q$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2229,7 +2228,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]xdisp!$Q$39:$Q$44</c:f>
+              <c:f>[2]xdisp!$Q$39:$Q$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2281,7 +2280,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[2]xdisp!$Q$113:$Q$123</c:f>
+              <c:f>[1]xdisp!$Q$113:$Q$123</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5108,7 +5107,8 @@
     <sheetNames>
       <sheetName val="ydisp"/>
       <sheetName val="xdisp"/>
-      <sheetName val="Sheet1"/>
+      <sheetName val="rawdata"/>
+      <sheetName val="graphs"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -5117,197 +5117,254 @@
             <v>0</v>
           </cell>
           <cell r="Q5">
-            <v>0.15955547365434397</v>
+            <v>0.15040906032838414</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>9</v>
+            <v>5</v>
           </cell>
           <cell r="Q6">
-            <v>0.15811831095959347</v>
+            <v>0.14954874860014569</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>18</v>
+            <v>10</v>
           </cell>
           <cell r="Q7">
-            <v>0.15111189505694944</v>
+            <v>0.14742846907269816</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>27</v>
+            <v>15</v>
           </cell>
           <cell r="Q8">
-            <v>0.13885875745617815</v>
+            <v>0.1437166456175954</v>
           </cell>
         </row>
         <row r="9">
           <cell r="C9">
-            <v>36</v>
+            <v>20</v>
           </cell>
           <cell r="Q9">
-            <v>0.12272077209907126</v>
+            <v>0.13855548019580788</v>
           </cell>
         </row>
         <row r="10">
           <cell r="C10">
-            <v>45</v>
+            <v>25</v>
           </cell>
           <cell r="Q10">
-            <v>0.10319712859331616</v>
+            <v>0.13207768302811407</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
+            <v>30</v>
+          </cell>
+          <cell r="Q11">
+            <v>0.12425740605673623</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>35</v>
+          </cell>
+          <cell r="Q12">
+            <v>0.11558688090892892</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>40</v>
+          </cell>
+          <cell r="Q13">
+            <v>0.10539790384176535</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>45</v>
+          </cell>
+          <cell r="Q14">
+            <v>9.4261738803482945E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
             <v>50</v>
           </cell>
-          <cell r="Q11">
-            <v>9.124816324674935E-2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="Q28">
-            <v>0.15085852372586986</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="Q29">
-            <v>0.13919480189315717</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="Q30">
-            <v>0.12300878261060014</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="Q31">
-            <v>0.10299749417540038</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="Q32">
-            <v>9.0787534835649164E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>0</v>
-          </cell>
-          <cell r="Q33">
-            <v>0.15959897302128428</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>9</v>
-          </cell>
-          <cell r="Q35">
-            <v>0.15804497927121275</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>18</v>
-          </cell>
-          <cell r="Q37">
-            <v>0.15123293583416217</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>27</v>
-          </cell>
-          <cell r="Q39">
-            <v>0.13860883987212388</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>36</v>
-          </cell>
-          <cell r="Q40">
-            <v>0.12263253100722643</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>45</v>
-          </cell>
-          <cell r="Q42">
-            <v>0.10303160616198277</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>50</v>
-          </cell>
-          <cell r="Q43">
-            <v>9.1061567130414856E-2</v>
+          <cell r="Q15">
+            <v>8.2505880523829692E-2</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="Q65">
+            <v>9.7248120200715243E-2</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="Q66">
+            <v>9.6983249385948364E-2</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="Q67">
+            <v>9.5474108015163955E-2</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="Q68">
+            <v>9.3188946325329244E-2</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="Q69">
+            <v>9.0112769082088637E-2</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="Q70">
+            <v>8.633242099687112E-2</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="Q71">
+            <v>8.1567491587922564E-2</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="Q72">
+            <v>7.6084401956945102E-2</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="Q73">
+            <v>7.0108604889330989E-2</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="Q74">
+            <v>6.3424445058913564E-2</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="Q75">
+            <v>5.6297063559770232E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="5">
-          <cell r="Q5">
-            <v>0.15955547365434397</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="Q6">
-            <v>0.15969108041667934</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="Q7">
-            <v>0.1596866054543922</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="Q8">
-            <v>0.15940028874833531</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="Q9">
-            <v>0.15959897302128428</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="Q39">
-            <v>9.124816324674935E-2</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="Q40">
-            <v>9.1130723567221628E-2</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="Q41">
-            <v>9.1244290425295388E-2</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="Q42">
-            <v>9.0787534835649164E-2</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="Q43">
-            <v>9.1061567130414856E-2</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="Q44">
-            <v>9.1284874020947981E-2</v>
+        <row r="102">
+          <cell r="Q102">
+            <v>0.15223204567741613</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="Q103">
+            <v>0.14419164336940116</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="Q104">
+            <v>0.13109555630404662</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="Q105">
+            <v>0.11828226524692452</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="Q106">
+            <v>0.10783886527399274</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="Q107">
+            <v>0.10009755084695754</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="Q108">
+            <v>9.4406780340863333E-2</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="Q109">
+            <v>9.0710015717923018E-2</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="Q110">
+            <v>8.8635483733982404E-2</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="Q111">
+            <v>8.7872526260079298E-2</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="Q113">
+            <v>8.3037539533121471E-2</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="Q114">
+            <v>8.2872013520223678E-2</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="Q115">
+            <v>7.892873256433959E-2</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="Q116">
+            <v>7.2307672462467304E-2</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="Q117">
+            <v>6.6053258553137137E-2</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="Q118">
+            <v>6.086580414583645E-2</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="Q119">
+            <v>5.6901176815896133E-2</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="Q120">
+            <v>5.4095623837685181E-2</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="Q121">
+            <v>5.2208280042257069E-2</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="Q122">
+            <v>5.1150289811754977E-2</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="Q123">
+            <v>5.0889729882912071E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5319,382 +5376,104 @@
     <sheetNames>
       <sheetName val="ydisp"/>
       <sheetName val="xdisp"/>
-      <sheetName val="rawdata"/>
-      <sheetName val="graphs"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="5">
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-          <cell r="Q5">
-            <v>0.15040906032838414</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>5</v>
-          </cell>
-          <cell r="Q6">
-            <v>0.14954874860014569</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>10</v>
-          </cell>
-          <cell r="Q7">
-            <v>0.14742846907269816</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>15</v>
-          </cell>
-          <cell r="Q8">
-            <v>0.1437166456175954</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>20</v>
-          </cell>
-          <cell r="Q9">
-            <v>0.13855548019580788</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>25</v>
-          </cell>
-          <cell r="Q10">
-            <v>0.13207768302811407</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>30</v>
-          </cell>
-          <cell r="Q11">
-            <v>0.12425740605673623</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>35</v>
-          </cell>
-          <cell r="Q12">
-            <v>0.11558688090892892</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>40</v>
-          </cell>
-          <cell r="Q13">
-            <v>0.10539790384176535</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>45</v>
-          </cell>
-          <cell r="Q14">
-            <v>9.4261738803482945E-2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>50</v>
-          </cell>
-          <cell r="Q15">
-            <v>8.2505880523829692E-2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>30</v>
-          </cell>
-          <cell r="Q16">
-            <v>0.11083525446171513</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>35</v>
-          </cell>
-          <cell r="Q17">
-            <v>0.10308625701577639</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>40</v>
-          </cell>
-          <cell r="Q18">
-            <v>9.4265449667996506E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>45</v>
-          </cell>
-          <cell r="Q19">
-            <v>8.4538732431500133E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64">
-            <v>50</v>
-          </cell>
-          <cell r="Q64">
-            <v>5.7629405861127858E-2</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65">
-            <v>0</v>
-          </cell>
-          <cell r="Q65">
-            <v>9.7248120200715243E-2</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66">
-            <v>5</v>
-          </cell>
-          <cell r="Q66">
-            <v>9.6983249385948364E-2</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="C67">
-            <v>10</v>
-          </cell>
-          <cell r="Q67">
-            <v>9.5474108015163955E-2</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="C68">
-            <v>15</v>
-          </cell>
-          <cell r="Q68">
-            <v>9.3188946325329244E-2</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69">
-            <v>20</v>
-          </cell>
-          <cell r="Q69">
-            <v>9.0112769082088637E-2</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70">
-            <v>25</v>
-          </cell>
-          <cell r="Q70">
-            <v>8.633242099687112E-2</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71">
-            <v>30</v>
-          </cell>
-          <cell r="Q71">
-            <v>8.1567491587922564E-2</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72">
-            <v>35</v>
-          </cell>
-          <cell r="Q72">
-            <v>7.6084401956945102E-2</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73">
-            <v>40</v>
-          </cell>
-          <cell r="Q73">
-            <v>7.0108604889330989E-2</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74">
-            <v>45</v>
-          </cell>
-          <cell r="Q74">
-            <v>6.3424445058913564E-2</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75">
-            <v>50</v>
-          </cell>
-          <cell r="Q75">
-            <v>5.6297063559770232E-2</v>
+        <row r="33">
+          <cell r="Q33">
+            <v>0.15959897302128428</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="Q35">
+            <v>0.15804497927121275</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="Q37">
+            <v>0.15123293583416217</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="Q39">
+            <v>0.13860883987212388</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="Q40">
+            <v>0.12263253100722643</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="Q42">
+            <v>0.10303160616198277</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="Q43">
+            <v>9.1061567130414856E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="5">
           <cell r="Q5">
-            <v>0.15040906032838414</v>
+            <v>0.15955547365434397</v>
           </cell>
         </row>
         <row r="6">
           <cell r="Q6">
-            <v>0.145287847476716</v>
+            <v>0.15969108041667934</v>
           </cell>
         </row>
         <row r="7">
           <cell r="Q7">
-            <v>0.1337395311285913</v>
+            <v>0.1596866054543922</v>
           </cell>
         </row>
         <row r="8">
           <cell r="Q8">
-            <v>0.12162539769571522</v>
+            <v>0.15940028874833531</v>
           </cell>
         </row>
         <row r="9">
           <cell r="Q9">
-            <v>0.11178775628279017</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="Q10">
-            <v>0.10457635243148465</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="Q11">
-            <v>9.9966053866741844E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="Q12">
-            <v>9.7248120200715243E-2</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="Q102">
-            <v>0.15223204567741613</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="Q103">
-            <v>0.14419164336940116</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="Q104">
-            <v>0.13109555630404662</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="Q105">
-            <v>0.11828226524692452</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="Q106">
-            <v>0.10783886527399274</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="Q107">
-            <v>0.10009755084695754</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="Q108">
-            <v>9.4406780340863333E-2</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="Q109">
-            <v>9.0710015717923018E-2</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="Q110">
-            <v>8.8635483733982404E-2</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="Q111">
-            <v>8.7872526260079298E-2</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="Q113">
-            <v>8.3037539533121471E-2</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="Q114">
-            <v>8.2872013520223678E-2</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="Q115">
-            <v>7.892873256433959E-2</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="Q116">
-            <v>7.2307672462467304E-2</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="Q117">
-            <v>6.6053258553137137E-2</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="Q118">
-            <v>6.086580414583645E-2</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="Q119">
-            <v>5.6901176815896133E-2</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="Q120">
-            <v>5.4095623837685181E-2</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="Q121">
-            <v>5.2208280042257069E-2</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="Q122">
-            <v>5.1150289811754977E-2</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="Q123">
-            <v>5.0889729882912071E-2</v>
+            <v>0.15959897302128428</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="Q39">
+            <v>9.124816324674935E-2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="Q40">
+            <v>9.1130723567221628E-2</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="Q41">
+            <v>9.1244290425295388E-2</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="Q42">
+            <v>9.0787534835649164E-2</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="Q43">
+            <v>9.1061567130414856E-2</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="Q44">
+            <v>9.1284874020947981E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5732,16 +5511,6 @@
             <v>9.2059462403844425E-2</v>
           </cell>
         </row>
-        <row r="9">
-          <cell r="Q9">
-            <v>9.0073611968208775E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="Q10">
-            <v>8.7320158405196635E-2</v>
-          </cell>
-        </row>
         <row r="11">
           <cell r="Q11">
             <v>8.4515587783188517E-2</v>
@@ -5762,16 +5531,6 @@
             <v>7.3312442793595348E-2</v>
           </cell>
         </row>
-        <row r="15">
-          <cell r="Q15">
-            <v>6.9084500972591667E-2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="Q16">
-            <v>6.4739667966707395E-2</v>
-          </cell>
-        </row>
         <row r="17">
           <cell r="Q17">
             <v>6.0221969776926988E-2</v>
@@ -5785,66 +5544,6 @@
         <row r="19">
           <cell r="Q19">
             <v>5.115847586785191E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="Q20">
-            <v>4.6674517830081856E-2</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="Q274">
-            <v>0.11246066340551357</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="Q275">
-            <v>0.11168647169957298</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="Q276">
-            <v>0.11016308429901774</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="Q279">
-            <v>0.10260352561216401</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="Q280">
-            <v>9.9461501318100831E-2</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="Q281">
-            <v>9.5391626401260893E-2</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="Q282">
-            <v>9.0977471681649616E-2</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="Q285">
-            <v>7.6169395971122794E-2</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="Q286">
-            <v>7.059776810408383E-2</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="Q287">
-            <v>6.5224072474842923E-2</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="Q288">
-            <v>5.9839093440928172E-2</v>
           </cell>
         </row>
         <row r="291">
@@ -6268,7 +5967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
